--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="425">
   <si>
     <t xml:space="preserve">id</t>
   </si>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="426">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,931 +38,934 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ,an </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthEng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">春,夏,秋,冬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,Female,Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,女性,男性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gendersDrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl,girl,boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女,女,男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother,bro,lad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister,sis,las</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomPotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomScroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomSpellBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomRod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomTrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謎の罠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvComparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSlash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切り払い,切られた,切った,切られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPierce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">突き刺し,突き刺された,突きさした,突きさされて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBlunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打って,打たれた,打った,打たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackCane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撃って,撃たれた,撃った,撃たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">射って,射たれた,射った,射られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">殴って,殴られた,殴った,殴られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackKick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蹴って,蹴られた,蹴った,蹴られて,脚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackClaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSpore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胞子で包み,胞子を飛ばされた,胞子を飛ばした,胞子を撒き散らかされて,胞子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睨んで,睨まれた,睨んだ,睨まれて,眼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刺し,刺された,刺した,刺されて,針</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackTouch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触って,触られた,触った,触られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillDiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平野</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浜辺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriendHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistNeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Weakness,Defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a gender,,,List of genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性別の選択,,,性別の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a class,,,List of classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a race,,,List of races</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種族の選択,,,種族の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAlias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異名の選択,,,異名の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wDifficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an oath,,,List of oaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誓約の選択,,,誓約の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wStartMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wMoongate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wCraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleBuySlave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleRevive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleCallReserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,ノート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wBGMLot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daggerTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_STR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty,Weakened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剛力,衰弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortified,Fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">堅牢,脆弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_DEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile,Clumsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧手,拙劣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Sense,Dull Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋭敏,鈍化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlightened,Hindered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学力向上,学習困難</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_WIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unyielding,Subdued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不屈,屈服</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力増幅,魔力減少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_CHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheerful,Gloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陽気,陰気</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky,Jinxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィーバー,ジンクス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_SPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haste,Slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加速,鈍足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,quality ,pure ,fabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,上質な,純粋な,幻の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野原の一夜,野原の一夜（冬）(テスト）,洞窟で（テスト）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Oath of Destiny,Oath of Eternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,運命の誓約,永遠の誓約</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulties_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Destiny Oath Taker,Eternal Oath Taker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,運命の誓約者,永遠の誓約者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exhint_AM_Terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrahint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th,st,nd,rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.65</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.27 fix 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a ,an </t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthEng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">春,夏,秋,冬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthShort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,Female,Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,女性,男性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gendersDrama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">girl,girl,boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女,女,男</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother,bro,lad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister,sis,las</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastWords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomPotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomScroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomSpellBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomRod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomTrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謎の罠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_storm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvComparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSlash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切り払い,切られた,切った,切られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPierce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">突き刺し,突き刺された,突きさした,突きさされて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBlunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打って,打たれた,打った,打たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackCane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">撃って,撃たれた,撃った,撃たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">射って,射たれた,射った,射られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">殴って,殴られた,殴った,殴られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackKick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蹴って,蹴られた,蹴った,蹴られて,脚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackClaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSpore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胞子で包み,胞子を飛ばされた,胞子を飛ばした,胞子を撒き散らかされて,胞子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">睨んで,睨まれた,睨んだ,睨まれて,眼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刺し,刺された,刺した,刺されて,針</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackTouch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">触って,触られた,触った,触られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillDiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平野</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浜辺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriendHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qClient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistNeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Weakness,Defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wGender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a gender,,,List of genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性別の選択,,,性別の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a class,,,List of classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wRace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a race,,,List of races</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種族の選択,,,種族の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAlias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異名の選択,,,異名の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wDifficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an oath,,,List of oaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誓約の選択,,,誓約の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wStartMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wMoongate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wCraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleBuySlave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleRevive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleCallReserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,ノート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wBGMLot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTravel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daggerTalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancientbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mighty,Weakened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剛力,衰弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortified,Fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">堅牢,脆弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_DEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile,Clumsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巧手,拙劣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keen Sense,Dull Sense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋭敏,鈍化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlightened,Hindered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学力向上,学習困難</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_WIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unyielding,Subdued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不屈,屈服</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_MAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力増幅,魔力減少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_CHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheerful,Gloom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陽気,陰気</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky,Jinxed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィーバー,ジンクス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste,Slow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加速,鈍足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,quality ,pure ,fabled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,上質な,純粋な,幻の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work_lv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜（冬）(テスト）,洞窟で（テスト）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Oath of Destiny,Oath of Eternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,運命の誓約,永遠の誓約</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulties_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Destiny Oath Taker,Eternal Oath Taker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,運命の誓約者,永遠の誓約者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exhint_AM_Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extrahint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guild_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th,st,nd,rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.26 fix 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.65</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.67</t>
@@ -1408,7 +1411,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1426,7 +1429,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1444,7 +1447,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1462,7 +1465,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1516,7 +1519,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1534,7 +1537,7 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1554,7 +1557,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1572,7 +1575,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1592,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1612,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1632,7 +1635,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1652,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1672,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1692,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1712,7 +1715,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1732,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1752,7 +1755,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1772,7 +1775,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1792,7 +1795,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1812,7 +1815,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1832,7 +1835,7 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1852,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1872,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1892,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1912,7 +1915,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1932,7 +1935,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1952,7 +1955,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -1972,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -1986,13 +1989,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2012,7 +2015,7 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2032,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2052,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2106,7 +2109,7 @@
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2124,7 +2127,7 @@
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2214,7 +2217,7 @@
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2228,11 +2231,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2246,11 +2249,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2264,11 +2267,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2282,11 +2285,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2300,11 +2303,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2318,11 +2321,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2340,7 +2343,7 @@
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2360,7 +2363,7 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2380,7 +2383,7 @@
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2400,7 +2403,7 @@
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2420,7 +2423,7 @@
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2434,13 +2437,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2454,13 +2457,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2474,13 +2477,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2500,7 +2503,7 @@
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2520,7 +2523,7 @@
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2540,7 +2543,7 @@
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2554,13 +2557,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2580,7 +2583,7 @@
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2600,7 +2603,7 @@
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2620,7 +2623,7 @@
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2634,13 +2637,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2660,7 +2663,7 @@
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2680,7 +2683,7 @@
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E70" t="s">
         <v>209</v>
@@ -2700,7 +2703,7 @@
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
@@ -2720,7 +2723,7 @@
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E72" t="s">
         <v>215</v>
@@ -2740,7 +2743,7 @@
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E73" t="s">
         <v>218</v>
@@ -2754,11 +2757,11 @@
         <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
         <v>221</v>
@@ -2776,7 +2779,7 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
@@ -2794,7 +2797,7 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E76" t="s">
         <v>227</v>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E77" t="s">
         <v>230</v>
@@ -2830,7 +2833,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E78" t="s">
         <v>233</v>
@@ -2844,11 +2847,11 @@
         <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E79" t="s">
         <v>236</v>
@@ -2862,11 +2865,11 @@
         <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E80" t="s">
         <v>239</v>
@@ -2880,11 +2883,11 @@
         <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E81" t="s">
         <v>242</v>
@@ -2898,11 +2901,11 @@
         <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E82" t="s">
         <v>245</v>
@@ -2916,11 +2919,11 @@
         <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E83" t="s">
         <v>248</v>
@@ -2934,11 +2937,11 @@
         <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E84" t="s">
         <v>251</v>
@@ -2952,11 +2955,11 @@
         <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E85" t="s">
         <v>254</v>
@@ -2970,11 +2973,11 @@
         <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E86" t="s">
         <v>257</v>
@@ -2988,11 +2991,11 @@
         <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E87" t="s">
         <v>260</v>
@@ -3006,11 +3009,11 @@
         <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E88" t="s">
         <v>263</v>
@@ -3024,11 +3027,11 @@
         <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E89" t="s">
         <v>266</v>
@@ -3042,11 +3045,11 @@
         <v>268</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E90" t="s">
         <v>269</v>
@@ -3064,7 +3067,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
         <v>272</v>
@@ -3082,7 +3085,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
         <v>275</v>
@@ -3096,11 +3099,11 @@
         <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E93" t="s">
         <v>278</v>
@@ -3114,11 +3117,11 @@
         <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E94" t="s">
         <v>281</v>
@@ -3132,11 +3135,11 @@
         <v>283</v>
       </c>
       <c r="B95" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E95" t="s">
         <v>284</v>
@@ -3150,11 +3153,11 @@
         <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E96" t="s">
         <v>287</v>
@@ -3168,11 +3171,11 @@
         <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E97" t="s">
         <v>290</v>
@@ -3186,13 +3189,13 @@
         <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
         <v>293</v>
       </c>
       <c r="D98" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E98" t="s">
         <v>294</v>
@@ -3206,11 +3209,11 @@
         <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E99" t="s">
         <v>297</v>
@@ -3224,11 +3227,11 @@
         <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E100" t="s">
         <v>300</v>
@@ -3242,11 +3245,11 @@
         <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
         <v>303</v>
@@ -3260,11 +3263,11 @@
         <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E102" t="s">
         <v>306</v>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="426">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">ListPeopleBuySlave</t>
   </si>
   <si>
-    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,クラス</t>
+    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,仕事</t>
   </si>
   <si>
     <t xml:space="preserve">ListPeopleRevive</t>
@@ -2577,7 +2577,7 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="427">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,958 +38,961 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ,an </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthEng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">春,夏,秋,冬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,Female,Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,女性,男性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gendersDrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl,girl,boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女,女,男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother,bro,lad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister,sis,las</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomPotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomScroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomSpellBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomRod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomTrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謎の罠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvComparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSlash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切り払い,切られた,切った,切られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPierce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">突き刺し,突き刺された,突きさした,突きさされて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBlunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打って,打たれた,打った,打たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackCane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撃って,撃たれた,撃った,撃たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">射って,射たれた,射った,射られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">殴って,殴られた,殴った,殴られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackKick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蹴って,蹴られた,蹴った,蹴られて,脚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackClaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSpore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胞子で包み,胞子を飛ばされた,胞子を飛ばした,胞子を撒き散らかされて,胞子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睨んで,睨まれた,睨んだ,睨まれて,眼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刺し,刺された,刺した,刺されて,針</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackTouch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触って,触られた,触った,触られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillDiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平野</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浜辺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriendHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistNeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Weakness,Defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a gender,,,List of genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性別の選択,,,性別の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a class,,,List of classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a race,,,List of races</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種族の選択,,,種族の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAlias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異名の選択,,,異名の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wDifficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an oath,,,List of oaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">誓約の選択,,,誓約の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wStartMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wMoongate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wCraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleBuySlave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,仕事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleRevive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleCallReserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,ノート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wBGMLot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daggerTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_STR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty,Weakened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剛力,衰弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortified,Fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">堅牢,脆弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_DEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile,Clumsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧手,拙劣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Sense,Dull Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋭敏,鈍化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlightened,Hindered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学力向上,学習困難</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_WIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unyielding,Subdued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不屈,屈服</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力増幅,魔力減少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_CHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheerful,Gloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陽気,陰気</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky,Jinxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィーバー,ジンクス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_SPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haste,Slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加速,鈍足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,quality ,pure ,fabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,上質な,純粋な,幻の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野原の一夜,野原の一夜（冬）(テスト）,洞窟で（テスト）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Oath of Destiny,Oath of Eternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,運命の誓約,永遠の誓約</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difficulties_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,Destiny Oath Taker,Eternal Oath Taker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,運命の誓約者,永遠の誓約者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exhint_AM_Terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrahint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th,st,nd,rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.27 fix 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a ,an </t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthEng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">春,夏,秋,冬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthShort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,Female,Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,女性,男性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gendersDrama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">girl,girl,boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女,女,男</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother,bro,lad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister,sis,las</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastWords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomPotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomScroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomSpellBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomRod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomTrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謎の罠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_storm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvComparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSlash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切り払い,切られた,切った,切られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPierce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">突き刺し,突き刺された,突きさした,突きさされて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBlunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打って,打たれた,打った,打たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackCane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">撃って,撃たれた,撃った,撃たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">射って,射たれた,射った,射られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">殴って,殴られた,殴った,殴られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackKick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蹴って,蹴られた,蹴った,蹴られて,脚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackClaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSpore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胞子で包み,胞子を飛ばされた,胞子を飛ばした,胞子を撒き散らかされて,胞子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">睨んで,睨まれた,睨んだ,睨まれて,眼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刺し,刺された,刺した,刺されて,針</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackTouch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">触って,触られた,触った,触られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillDiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平野</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浜辺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriendHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qClient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistNeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Weakness,Defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wGender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a gender,,,List of genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性別の選択,,,性別の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a class,,,List of classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wRace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a race,,,List of races</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種族の選択,,,種族の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAlias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異名の選択,,,異名の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wDifficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an oath,,,List of oaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誓約の選択,,,誓約の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wStartMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wMoongate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wCraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleBuySlave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,仕事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleRevive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleCallReserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,ノート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wBGMLot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTravel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daggerTalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancientbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mighty,Weakened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剛力,衰弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortified,Fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">堅牢,脆弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_DEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile,Clumsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巧手,拙劣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keen Sense,Dull Sense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋭敏,鈍化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlightened,Hindered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学力向上,学習困難</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_WIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unyielding,Subdued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不屈,屈服</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_MAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力増幅,魔力減少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_CHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheerful,Gloom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陽気,陰気</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky,Jinxed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィーバー,ジンクス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste,Slow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加速,鈍足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,quality ,pure ,fabled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,上質な,純粋な,幻の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work_lv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜（冬）(テスト）,洞窟で（テスト）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Oath of Destiny,Oath of Eternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,運命の誓約,永遠の誓約</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulties_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Destiny Oath Taker,Eternal Oath Taker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,運命の誓約者,永遠の誓約者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exhint_AM_Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extrahint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guild_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th,st,nd,rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.26 fix 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 17.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.52</t>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1429,7 +1432,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1447,7 +1450,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1465,7 +1468,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1483,7 +1486,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1501,7 +1504,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1519,7 +1522,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1537,7 +1540,7 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1557,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1595,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1615,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1635,7 +1638,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1655,7 +1658,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1675,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1695,7 +1698,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1715,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1735,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1755,7 +1758,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1775,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1795,7 +1798,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1815,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1835,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1855,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1875,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1895,7 +1898,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1915,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1935,7 +1938,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1955,7 +1958,7 @@
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -1975,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -1995,7 +1998,7 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2015,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2035,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2055,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2091,7 +2094,7 @@
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2127,7 +2130,7 @@
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2271,7 +2274,7 @@
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2363,7 +2366,7 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2383,7 +2386,7 @@
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2403,7 +2406,7 @@
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2423,7 +2426,7 @@
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2443,7 +2446,7 @@
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2463,7 +2466,7 @@
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2483,7 +2486,7 @@
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2503,7 +2506,7 @@
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2523,7 +2526,7 @@
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2543,7 +2546,7 @@
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2563,7 +2566,7 @@
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2577,13 +2580,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2603,7 +2606,7 @@
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2623,7 +2626,7 @@
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2637,13 +2640,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2663,7 +2666,7 @@
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2683,7 +2686,7 @@
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E70" t="s">
         <v>209</v>
@@ -2703,7 +2706,7 @@
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
@@ -2723,7 +2726,7 @@
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E72" t="s">
         <v>215</v>
@@ -2743,7 +2746,7 @@
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E73" t="s">
         <v>218</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
         <v>221</v>
@@ -2779,7 +2782,7 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
@@ -2797,7 +2800,7 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
         <v>227</v>
@@ -2815,7 +2818,7 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E77" t="s">
         <v>230</v>
@@ -2833,7 +2836,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E78" t="s">
         <v>233</v>
@@ -2851,7 +2854,7 @@
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E79" t="s">
         <v>236</v>
@@ -2869,7 +2872,7 @@
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E80" t="s">
         <v>239</v>
@@ -2887,7 +2890,7 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
         <v>242</v>
@@ -2905,7 +2908,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
         <v>245</v>
@@ -2923,7 +2926,7 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E83" t="s">
         <v>248</v>
@@ -2941,7 +2944,7 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E84" t="s">
         <v>251</v>
@@ -2959,7 +2962,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
         <v>254</v>
@@ -2977,7 +2980,7 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E86" t="s">
         <v>257</v>
@@ -2995,7 +2998,7 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E87" t="s">
         <v>260</v>
@@ -3013,7 +3016,7 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E88" t="s">
         <v>263</v>
@@ -3031,7 +3034,7 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E89" t="s">
         <v>266</v>
@@ -3049,7 +3052,7 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
         <v>269</v>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E91" t="s">
         <v>272</v>
@@ -3085,7 +3088,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
         <v>275</v>
@@ -3103,7 +3106,7 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E93" t="s">
         <v>278</v>
@@ -3121,7 +3124,7 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E94" t="s">
         <v>281</v>
@@ -3135,11 +3138,11 @@
         <v>283</v>
       </c>
       <c r="B95" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E95" t="s">
         <v>284</v>
@@ -3157,7 +3160,7 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E96" t="s">
         <v>287</v>
@@ -3175,7 +3178,7 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E97" t="s">
         <v>290</v>
@@ -3195,7 +3198,7 @@
         <v>293</v>
       </c>
       <c r="D98" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E98" t="s">
         <v>294</v>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E99" t="s">
         <v>297</v>
@@ -3231,7 +3234,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E100" t="s">
         <v>300</v>
@@ -3249,7 +3252,7 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E101" t="s">
         <v>303</v>
@@ -3263,11 +3266,11 @@
         <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
         <v>306</v>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="430">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search_words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bill,tax,trainer,guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請求書,納税箱,トレイナー,ガード</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 18.1</t>
@@ -1397,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1410,11 +1419,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1428,11 +1437,11 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1446,11 +1455,11 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1464,11 +1473,11 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1482,11 +1491,11 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1500,11 +1509,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1518,11 +1527,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1536,11 +1545,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1554,13 +1563,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1574,11 +1583,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1592,13 +1601,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1612,13 +1621,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1632,13 +1641,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1652,13 +1661,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1672,13 +1681,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1692,13 +1701,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1712,13 +1721,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1732,13 +1741,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1752,13 +1761,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1772,13 +1781,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1792,13 +1801,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1812,13 +1821,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1832,13 +1841,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1852,13 +1861,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1872,13 +1881,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1892,13 +1901,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1912,13 +1921,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1932,13 +1941,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1952,13 +1961,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -1972,13 +1981,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -1992,13 +2001,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2012,13 +2021,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2032,13 +2041,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2052,13 +2061,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2072,11 +2081,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2090,11 +2099,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2108,11 +2117,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2126,11 +2135,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2144,11 +2153,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2162,11 +2171,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2180,11 +2189,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2198,11 +2207,11 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2216,11 +2225,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2234,11 +2243,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2252,11 +2261,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2270,11 +2279,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2288,11 +2297,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2306,11 +2315,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2324,11 +2333,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2342,11 +2351,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2360,13 +2369,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2380,13 +2389,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2400,13 +2409,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2420,13 +2429,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2440,13 +2449,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2460,13 +2469,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2480,13 +2489,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2500,13 +2509,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2520,13 +2529,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2540,13 +2549,13 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2560,13 +2569,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2580,13 +2589,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2600,13 +2609,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2620,13 +2629,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2640,13 +2649,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2660,13 +2669,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2680,13 +2689,13 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E70" t="s">
         <v>209</v>
@@ -2700,13 +2709,13 @@
         <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
@@ -2720,13 +2729,13 @@
         <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
         <v>215</v>
@@ -2740,13 +2749,13 @@
         <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s">
         <v>218</v>
@@ -2760,11 +2769,11 @@
         <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E74" t="s">
         <v>221</v>
@@ -2778,11 +2787,11 @@
         <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
         <v>224</v>
@@ -2796,11 +2805,11 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E76" t="s">
         <v>227</v>
@@ -2814,11 +2823,11 @@
         <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
         <v>230</v>
@@ -2832,11 +2841,11 @@
         <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
         <v>233</v>
@@ -2850,11 +2859,11 @@
         <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E79" t="s">
         <v>236</v>
@@ -2868,11 +2877,11 @@
         <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E80" t="s">
         <v>239</v>
@@ -2886,11 +2895,11 @@
         <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E81" t="s">
         <v>242</v>
@@ -2904,11 +2913,11 @@
         <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E82" t="s">
         <v>245</v>
@@ -2922,11 +2931,11 @@
         <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E83" t="s">
         <v>248</v>
@@ -2940,11 +2949,11 @@
         <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E84" t="s">
         <v>251</v>
@@ -2958,11 +2967,11 @@
         <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E85" t="s">
         <v>254</v>
@@ -2976,11 +2985,11 @@
         <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E86" t="s">
         <v>257</v>
@@ -2994,11 +3003,11 @@
         <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E87" t="s">
         <v>260</v>
@@ -3012,11 +3021,11 @@
         <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E88" t="s">
         <v>263</v>
@@ -3030,11 +3039,11 @@
         <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E89" t="s">
         <v>266</v>
@@ -3048,11 +3057,11 @@
         <v>268</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E90" t="s">
         <v>269</v>
@@ -3066,11 +3075,11 @@
         <v>271</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E91" t="s">
         <v>272</v>
@@ -3084,11 +3093,11 @@
         <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E92" t="s">
         <v>275</v>
@@ -3102,11 +3111,11 @@
         <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E93" t="s">
         <v>278</v>
@@ -3120,11 +3129,11 @@
         <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E94" t="s">
         <v>281</v>
@@ -3138,11 +3147,11 @@
         <v>283</v>
       </c>
       <c r="B95" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E95" t="s">
         <v>284</v>
@@ -3156,11 +3165,11 @@
         <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E96" t="s">
         <v>287</v>
@@ -3174,11 +3183,11 @@
         <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E97" t="s">
         <v>290</v>
@@ -3192,13 +3201,13 @@
         <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C98" t="s">
         <v>293</v>
       </c>
       <c r="D98" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E98" t="s">
         <v>294</v>
@@ -3212,11 +3221,11 @@
         <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E99" t="s">
         <v>297</v>
@@ -3230,11 +3239,11 @@
         <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E100" t="s">
         <v>300</v>
@@ -3248,11 +3257,11 @@
         <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E101" t="s">
         <v>303</v>
@@ -3266,17 +3275,32 @@
         <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E102" t="s">
         <v>306</v>
       </c>
       <c r="F102" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103"/>
+      <c r="E103" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="437">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -951,6 +951,15 @@
   </si>
   <si>
     <t xml:space="preserve">請求書,納税箱,トレイナー,ガード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortuneroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose,3rd Prize,2nd Prize,1st Prize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハズレ,3等,2等,1等</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 18.1</t>
@@ -1418,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1431,11 +1440,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1449,11 +1458,11 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1467,11 +1476,11 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1485,11 +1494,11 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1503,11 +1512,11 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1521,11 +1530,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1539,11 +1548,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1557,11 +1566,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1575,13 +1584,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1595,11 +1604,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1613,13 +1622,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1633,13 +1642,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1653,13 +1662,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1673,13 +1682,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1693,13 +1702,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1713,13 +1722,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1733,13 +1742,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1753,13 +1762,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1773,13 +1782,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1793,13 +1802,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1813,13 +1822,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1833,13 +1842,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1853,13 +1862,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1873,13 +1882,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1893,13 +1902,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1913,13 +1922,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1933,13 +1942,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1953,13 +1962,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1973,13 +1982,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -1993,13 +2002,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2013,13 +2022,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2033,13 +2042,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2053,13 +2062,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2073,13 +2082,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2093,11 +2102,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2111,11 +2120,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2129,11 +2138,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2147,11 +2156,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2165,11 +2174,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2183,11 +2192,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2201,11 +2210,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2219,11 +2228,11 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2237,11 +2246,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2255,11 +2264,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2273,11 +2282,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2291,11 +2300,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2309,11 +2318,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2327,11 +2336,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2345,11 +2354,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2363,11 +2372,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2381,13 +2390,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2401,13 +2410,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2421,13 +2430,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2441,13 +2450,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2461,13 +2470,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2481,13 +2490,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2501,13 +2510,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2521,13 +2530,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2541,13 +2550,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2561,13 +2570,13 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2581,13 +2590,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2601,13 +2610,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2621,13 +2630,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2641,13 +2650,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2661,13 +2670,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2681,13 +2690,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2701,13 +2710,13 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
         <v>206</v>
@@ -2721,13 +2730,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2741,13 +2750,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2761,13 +2770,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -2781,13 +2790,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -2801,11 +2810,11 @@
         <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -2819,11 +2828,11 @@
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -2837,11 +2846,11 @@
         <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -2855,11 +2864,11 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -2873,11 +2882,11 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2891,11 +2900,11 @@
         <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -2909,11 +2918,11 @@
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -2927,11 +2936,11 @@
         <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -2945,11 +2954,11 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -2963,11 +2972,11 @@
         <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -2981,11 +2990,11 @@
         <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -2999,11 +3008,11 @@
         <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3017,11 +3026,11 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3035,11 +3044,11 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3053,11 +3062,11 @@
         <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3071,11 +3080,11 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3089,11 +3098,11 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3107,11 +3116,11 @@
         <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3125,11 +3134,11 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3143,11 +3152,11 @@
         <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3161,11 +3170,11 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3179,11 +3188,11 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3197,11 +3206,11 @@
         <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -3215,11 +3224,11 @@
         <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -3233,13 +3242,13 @@
         <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
         <v>294</v>
       </c>
       <c r="D99" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E99" t="s">
         <v>295</v>
@@ -3253,11 +3262,11 @@
         <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3271,11 +3280,11 @@
         <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3289,11 +3298,11 @@
         <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -3307,11 +3316,11 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E103" t="s">
         <v>307</v>
@@ -3325,17 +3334,32 @@
         <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E104" t="s">
         <v>310</v>
       </c>
       <c r="F104" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105"/>
+      <c r="E105" t="s">
+        <v>313</v>
+      </c>
+      <c r="F105" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="439">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*</t>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*</t>
   </si>
   <si>
     <t xml:space="preserve">randomPotion</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
   </si>
   <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜（冬）(テスト）,洞窟で（テスト）</t>
+    <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
   </si>
   <si>
     <t xml:space="preserve">difficulties</t>
@@ -1610,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
@@ -3194,7 +3194,7 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>7</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="442">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRuneMold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an enchantment to extract,,,Enchantment Name,Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抽出エンチャントの選択,,,エンチャントの名前,強度</t>
   </si>
   <si>
     <t xml:space="preserve">wTrain</t>
@@ -1433,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1446,11 +1455,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1464,11 +1473,11 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1482,11 +1491,11 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1500,11 +1509,11 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1518,11 +1527,11 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1536,11 +1545,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1554,11 +1563,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1572,11 +1581,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1590,13 +1599,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1610,11 +1619,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1628,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1648,13 +1657,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1668,13 +1677,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1688,13 +1697,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1708,13 +1717,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1728,13 +1737,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1748,13 +1757,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1768,13 +1777,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1788,13 +1797,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1808,13 +1817,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1828,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1848,13 +1857,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1868,13 +1877,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1888,13 +1897,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1908,13 +1917,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1928,13 +1937,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1948,13 +1957,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1968,13 +1977,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1988,13 +1997,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -2008,13 +2017,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2028,13 +2037,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2048,13 +2057,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2068,13 +2077,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2088,13 +2097,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2108,11 +2117,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2126,11 +2135,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2144,11 +2153,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2162,11 +2171,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2180,11 +2189,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2198,11 +2207,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2216,11 +2225,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2234,11 +2243,11 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2252,11 +2261,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2270,11 +2279,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2288,11 +2297,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2306,11 +2315,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2324,11 +2333,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2342,11 +2351,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2360,11 +2369,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2378,11 +2387,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2396,13 +2405,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2416,13 +2425,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2436,13 +2445,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2456,13 +2465,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2476,13 +2485,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2496,13 +2505,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2516,13 +2525,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2536,13 +2545,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2556,13 +2565,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2576,13 +2585,10 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>397</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2596,13 +2602,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2616,13 +2622,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2636,13 +2642,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2656,13 +2662,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2676,13 +2682,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2696,13 +2702,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2716,39 +2722,39 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E71" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" t="s">
         <v>210</v>
-      </c>
-      <c r="F71" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="72">
@@ -2756,13 +2762,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2776,13 +2782,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -2796,13 +2802,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -2816,11 +2822,13 @@
         <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
-      </c>
-      <c r="C75"/>
+        <v>319</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
       <c r="D75" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -2834,11 +2842,11 @@
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -2852,11 +2860,11 @@
         <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -2870,11 +2878,11 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -2888,11 +2896,11 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2906,11 +2914,11 @@
         <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -2924,11 +2932,11 @@
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -2942,11 +2950,11 @@
         <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -2960,11 +2968,11 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -2978,11 +2986,11 @@
         <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -2996,11 +3004,11 @@
         <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -3014,11 +3022,11 @@
         <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3032,11 +3040,11 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3050,11 +3058,11 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3068,11 +3076,11 @@
         <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3086,11 +3094,11 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3104,11 +3112,11 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3122,11 +3130,11 @@
         <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3140,11 +3148,11 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3158,11 +3166,11 @@
         <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3176,11 +3184,11 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3194,11 +3202,11 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3212,11 +3220,11 @@
         <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -3230,11 +3238,11 @@
         <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -3248,31 +3256,31 @@
         <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>332</v>
-      </c>
-      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" t="s">
+        <v>434</v>
+      </c>
+      <c r="E99" t="s">
         <v>294</v>
       </c>
-      <c r="D99" t="s">
-        <v>432</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>295</v>
-      </c>
-      <c r="F99" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>335</v>
+      </c>
+      <c r="C100" t="s">
         <v>297</v>
       </c>
-      <c r="B100" t="s">
-        <v>327</v>
-      </c>
-      <c r="C100"/>
       <c r="D100" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3286,11 +3294,11 @@
         <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3304,11 +3312,11 @@
         <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -3322,11 +3330,11 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E103" t="s">
         <v>307</v>
@@ -3340,11 +3348,11 @@
         <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
         <v>310</v>
@@ -3358,17 +3366,35 @@
         <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
         <v>313</v>
       </c>
       <c r="F105" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106" t="s">
+        <v>441</v>
+      </c>
+      <c r="E106" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="443">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
   </si>
   <si>
-    <t xml:space="preserve">胞子で包み,胞子を飛ばされた,胞子を飛ばした,胞子を撒き散らかされて,胞子</t>
+    <t xml:space="preserve">撫でて,撫でられた,撫でた,撫でられて,胞子</t>
   </si>
   <si>
     <t xml:space="preserve">attackGaze</t>
@@ -960,6 +960,15 @@
   </si>
   <si>
     <t xml:space="preserve">レガシー冒険者,駆け出し冒険者,冒険者,熟練冒険者,伝説の冒険者,神話の冒険者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba～rrel♪,Barrel!,Barre~l!,Barrel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">た～る♪,たーる！,たーるっ,たる</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 18.1</t>
@@ -1436,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1449,11 +1458,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1467,11 +1476,11 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1485,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1503,11 +1512,11 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1521,11 +1530,11 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1539,11 +1548,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1557,11 +1566,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1575,11 +1584,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1593,13 +1602,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1613,11 +1622,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1631,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1651,13 +1660,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1671,13 +1680,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1691,13 +1700,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1711,13 +1720,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1731,13 +1740,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1751,13 +1760,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1771,13 +1780,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1791,13 +1800,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1811,13 +1820,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1831,13 +1840,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1851,13 +1860,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1871,13 +1880,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1891,13 +1900,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1911,13 +1920,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1931,13 +1940,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1951,13 +1960,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1971,13 +1980,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1991,13 +2000,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -2011,13 +2020,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2031,13 +2040,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2051,13 +2060,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2071,13 +2080,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2091,13 +2100,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2111,11 +2120,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2129,11 +2138,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2147,11 +2156,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2165,11 +2174,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2183,11 +2192,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2201,11 +2210,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2219,11 +2228,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2237,11 +2246,11 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2255,11 +2264,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2273,11 +2282,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2291,11 +2300,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2309,11 +2318,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2327,11 +2336,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2345,11 +2354,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2363,11 +2372,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2381,11 +2390,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2399,13 +2408,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2419,13 +2428,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2439,13 +2448,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2459,13 +2468,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2479,13 +2488,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2499,13 +2508,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2519,13 +2528,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2539,13 +2548,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2559,13 +2568,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2579,13 +2588,13 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2599,13 +2608,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2619,13 +2628,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2639,13 +2648,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2659,13 +2668,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2679,13 +2688,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2699,13 +2708,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2719,13 +2728,13 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E70" t="s">
         <v>206</v>
@@ -2739,13 +2748,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2759,13 +2768,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2779,13 +2788,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -2799,13 +2808,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -2819,11 +2828,11 @@
         <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -2837,11 +2846,11 @@
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -2855,11 +2864,11 @@
         <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -2873,11 +2882,11 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -2891,11 +2900,11 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2909,11 +2918,11 @@
         <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -2927,11 +2936,11 @@
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -2945,11 +2954,11 @@
         <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -2963,11 +2972,11 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -2981,11 +2990,11 @@
         <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -2999,11 +3008,11 @@
         <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -3017,11 +3026,11 @@
         <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3035,11 +3044,11 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3053,11 +3062,11 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3071,11 +3080,11 @@
         <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3089,11 +3098,11 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3107,11 +3116,11 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3125,11 +3134,11 @@
         <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3143,11 +3152,11 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3161,11 +3170,11 @@
         <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3179,11 +3188,11 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3197,11 +3206,11 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3215,13 +3224,13 @@
         <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C97" t="s">
         <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E97" t="s">
         <v>289</v>
@@ -3235,11 +3244,11 @@
         <v>291</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E98" t="s">
         <v>292</v>
@@ -3253,11 +3262,11 @@
         <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E99" t="s">
         <v>295</v>
@@ -3271,11 +3280,11 @@
         <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3289,11 +3298,11 @@
         <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3307,11 +3316,11 @@
         <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -3325,11 +3334,11 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E103" t="s">
         <v>307</v>
@@ -3343,11 +3352,11 @@
         <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E104" t="s">
         <v>310</v>
@@ -3361,17 +3370,32 @@
         <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E105" t="s">
         <v>313</v>
       </c>
       <c r="F105" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106" t="s">
+        <v>316</v>
+      </c>
+      <c r="F106" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Alpha 20.42</t>
   </si>
   <si>
-    <t xml:space="preserve">베어서 ,참격해 ,베어 ,참상을 남겨 </t>
+    <t xml:space="preserve">베어서 ,베였다,베었다,베여서 </t>
   </si>
   <si>
     <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">attackPierce</t>
   </si>
   <si>
-    <t xml:space="preserve">찔러서 ,꽂아 ,우겨넣어 ,찔러넣어 </t>
+    <t xml:space="preserve">찔러서 ,찔렸다,꿰뚫었다,꿰뚫려서 </t>
   </si>
   <si>
     <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">attackBlunt</t>
   </si>
   <si>
-    <t xml:space="preserve">때려 ,강타해 ,박살내 ,두들겨 패 </t>
+    <t xml:space="preserve">때려 ,얻어맞았다,두들겼다,얻어맞아서 </t>
   </si>
   <si>
     <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">Alpha 20.65</t>
   </si>
   <si>
-    <t xml:space="preserve">마력으로 강타해 ,마력을 방출해 ,마력을 방출해 ,마력을 발산해 </t>
+    <t xml:space="preserve">마력으로 쳐서 ,마력에 맞았다,마력을 방출했다,마력에 휩쓸려서 </t>
   </si>
   <si>
     <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">attackGun</t>
   </si>
   <si>
-    <t xml:space="preserve">쏘아서 ,사격해 ,납탄으로 ,조준 사격해 </t>
+    <t xml:space="preserve">쏘아서 ,탄에 맞았다,사격했다,사격당해서 </t>
   </si>
   <si>
     <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">attackBow</t>
   </si>
   <si>
-    <t xml:space="preserve">쏘아서 ,화살을 날려 ,시위를 놓아 ,조준 사격해 </t>
+    <t xml:space="preserve">쏘아서 ,화살에 맞았다,쏘았다,화살에 맞아서 </t>
   </si>
   <si>
     <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">attackPunch</t>
   </si>
   <si>
-    <t xml:space="preserve">주먹질을 해 ,두들겨 패 ,주먹맛을 보여 ,두 주먹으로 ,주먹 </t>
+    <t xml:space="preserve">두들겨 패서 ,얻어맞았다,때렸다,두들겨 맞아서 ,주먹</t>
   </si>
   <si>
     <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">attackKick</t>
   </si>
   <si>
-    <t xml:space="preserve">차서 ,까서 ,다리 힘으로 ,걷어 차 ,내질러 ,발 </t>
+    <t xml:space="preserve">차서 ,차였다,걷어찼다,걷어차여서 ,발</t>
   </si>
   <si>
     <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">attackClaw</t>
   </si>
   <si>
-    <t xml:space="preserve">긁어서 ,날카로운 상처를 내 ,손톱을 꽂아 ,손톱으로 ,손톱 </t>
+    <t xml:space="preserve">긁어서 ,긁혔다,할퀴었다,할퀴어져서 ,손톱</t>
   </si>
   <si>
     <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">attackBite</t>
   </si>
   <si>
-    <t xml:space="preserve">물어서 ,어금니로 ,이빨로 ,송곳니로 ,이빨 </t>
+    <t xml:space="preserve">물어서 ,물렸다,물어뜯었다,물어뜯겨서 ,이빨</t>
   </si>
   <si>
     <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
-    <t xml:space="preserve">포자를 뿜어 ,포자를 내뿜어 ,포자를 터뜨려 ,포자로 ,포자 </t>
+    <t xml:space="preserve">포자를 뿜어 ,포자를 맞았다,포자를 뿌렸다,포자를 뒤집어써서 ,포자</t>
   </si>
   <si>
     <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">attackGaze</t>
   </si>
   <si>
-    <t xml:space="preserve">노려봐 ,응시해 ,날카로운 시선으로 ,바라봐 ,눈 </t>
+    <t xml:space="preserve">노려봐 ,시선에 당했다,쏘아봤다,눈빛을 받아서 ,눈</t>
   </si>
   <si>
     <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">attackSting</t>
   </si>
   <si>
-    <t xml:space="preserve">쏘아서 ,날카로운 침으로 ,뾰족한 침으로 ,침을 찔러넣어 ,침</t>
+    <t xml:space="preserve">쏘아서 ,쏘였다,찔러넣었다,찔려서 ,침</t>
   </si>
   <si>
     <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">attackTouch</t>
   </si>
   <si>
-    <t xml:space="preserve">만져서 ,닿아서 ,접촉으로 ,맞닿아서 ,손 </t>
+    <t xml:space="preserve">만져서 ,닿았다,건드렸다,만져져서 ,손</t>
   </si>
   <si>
     <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
@@ -1435,12 +1435,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1583,1938 +1587,1939 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="63.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="1" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="1" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="1" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="1" t="s">
         <v>442</v>
       </c>
     </row>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -475,7 +475,7 @@
     <t xml:space="preserve">attackTouch</t>
   </si>
   <si>
-    <t xml:space="preserve">만져서 ,닿았다,건드렸다,만져져서 ,손</t>
+    <t xml:space="preserve">만져서 ,만져졌다,건드렸다,만져져서 ,손</t>
   </si>
   <si>
     <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
@@ -1587,9 +1587,9 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="466">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*</t>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*,*Love Love Love*,♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*,*Love Love Love*,♥</t>
   </si>
   <si>
     <t xml:space="preserve">randomPotion</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">startMode</t>
   </si>
   <si>
-    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
+    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter),In a cave,One Block (Test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野原の一夜,野原の一夜 (冬),洞窟で,ワンブロック（テスト）</t>
   </si>
   <si>
     <t xml:space="preserve">exhint_AM_Terrain</t>
@@ -1709,7 +1709,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
@@ -3383,7 +3383,7 @@
         <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
